--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-supported-capacity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-supported-capacity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-supported-capacity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-supported-capacity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-supported-capacity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-supported-capacity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-supported-capacity.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-supported-capacity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,9 +319,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:capacityAvailable</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension:capacityAvailable.value[x]</t>
@@ -1316,24 +1316,24 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -1358,10 +1358,10 @@
         <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1421,7 +1421,7 @@
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>81</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1535,10 +1535,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1567,7 +1567,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1627,7 +1627,7 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>81</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1664,16 +1664,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1723,22 +1723,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1835,13 +1835,13 @@
         <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -1880,7 +1880,7 @@
         <v>124</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1940,7 +1940,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>81</v>
@@ -1954,7 +1954,7 @@
         <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2057,7 +2057,7 @@
         <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2086,7 +2086,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2146,7 +2146,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>81</v>
@@ -2160,7 +2160,7 @@
         <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2183,16 +2183,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2242,22 +2242,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -2354,13 +2354,13 @@
         <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
@@ -2399,7 +2399,7 @@
         <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2459,7 +2459,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>81</v>
@@ -2473,7 +2473,7 @@
         <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2576,7 +2576,7 @@
         <v>133</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2605,7 +2605,7 @@
         <v>30</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2665,7 +2665,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>81</v>
@@ -2679,7 +2679,7 @@
         <v>134</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2702,16 +2702,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2761,22 +2761,22 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -2873,13 +2873,13 @@
         <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -2918,7 +2918,7 @@
         <v>138</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2978,7 +2978,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>81</v>
@@ -2992,7 +2992,7 @@
         <v>139</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3095,7 +3095,7 @@
         <v>140</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3124,7 +3124,7 @@
         <v>30</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3184,7 +3184,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>81</v>
@@ -3198,7 +3198,7 @@
         <v>141</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3221,16 +3221,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3280,22 +3280,22 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -3392,13 +3392,13 @@
         <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -3437,7 +3437,7 @@
         <v>145</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3497,7 +3497,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>81</v>
@@ -3511,7 +3511,7 @@
         <v>146</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3614,7 +3614,7 @@
         <v>147</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3643,7 +3643,7 @@
         <v>30</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3703,7 +3703,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>81</v>
@@ -3717,7 +3717,7 @@
         <v>148</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3740,16 +3740,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -3799,22 +3799,22 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -3911,13 +3911,13 @@
         <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -3956,7 +3956,7 @@
         <v>152</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4016,7 +4016,7 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>81</v>
@@ -4030,7 +4030,7 @@
         <v>153</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4133,7 +4133,7 @@
         <v>154</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4162,7 +4162,7 @@
         <v>30</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4222,7 +4222,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -4236,7 +4236,7 @@
         <v>155</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4259,16 +4259,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4318,22 +4318,22 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -4430,13 +4430,13 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -4475,7 +4475,7 @@
         <v>159</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4535,7 +4535,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -4549,7 +4549,7 @@
         <v>160</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4652,7 +4652,7 @@
         <v>161</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4681,7 +4681,7 @@
         <v>30</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4741,7 +4741,7 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>81</v>
@@ -4755,7 +4755,7 @@
         <v>162</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4778,16 +4778,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -4837,22 +4837,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -4949,13 +4949,13 @@
         <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -4994,7 +4994,7 @@
         <v>166</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5054,7 +5054,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>81</v>
@@ -5068,7 +5068,7 @@
         <v>167</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5171,7 +5171,7 @@
         <v>168</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5200,7 +5200,7 @@
         <v>30</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5260,7 +5260,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>81</v>
@@ -5274,7 +5274,7 @@
         <v>169</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5297,16 +5297,16 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5356,22 +5356,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -5468,21 +5468,21 @@
         <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5505,16 +5505,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -5564,22 +5564,22 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -5676,13 +5676,13 @@
         <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
